--- a/Banco Central/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
@@ -14323,7 +14323,7 @@
         <v>83.45</v>
       </c>
       <c r="F331">
-        <v>88.14</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="G331">
         <v>37.59</v>
@@ -14332,37 +14332,37 @@
         <v>89.70999999999999</v>
       </c>
       <c r="I331">
-        <v>129.92</v>
+        <v>130.26</v>
       </c>
       <c r="J331">
-        <v>82.34</v>
+        <v>82.3</v>
       </c>
       <c r="K331">
         <v>80.11</v>
       </c>
       <c r="L331">
-        <v>66.01000000000001</v>
+        <v>67.36</v>
       </c>
       <c r="M331">
-        <v>99.45</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="N331">
-        <v>69.76000000000001</v>
+        <v>69.97</v>
       </c>
       <c r="O331">
         <v>84.83</v>
       </c>
       <c r="P331">
-        <v>62.41</v>
+        <v>61.84</v>
       </c>
       <c r="Q331">
-        <v>91.13</v>
+        <v>91.08</v>
       </c>
       <c r="R331">
-        <v>79.41</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="S331">
-        <v>69.06</v>
+        <v>68.45999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:19">
@@ -14903,49 +14903,49 @@
         <v>95.06</v>
       </c>
       <c r="E342">
-        <v>144.45</v>
+        <v>144.41</v>
       </c>
       <c r="F342">
-        <v>214.18</v>
+        <v>214.83</v>
       </c>
       <c r="G342">
-        <v>152.22</v>
+        <v>153.03</v>
       </c>
       <c r="H342">
-        <v>166.32</v>
+        <v>168.63</v>
       </c>
       <c r="I342">
-        <v>268.27</v>
+        <v>268.68</v>
       </c>
       <c r="J342">
-        <v>127.93</v>
+        <v>127.72</v>
       </c>
       <c r="K342">
-        <v>110.19</v>
+        <v>109.56</v>
       </c>
       <c r="L342">
         <v>73.19</v>
       </c>
       <c r="M342">
-        <v>127.51</v>
+        <v>127.35</v>
       </c>
       <c r="N342">
-        <v>101.71</v>
+        <v>102.16</v>
       </c>
       <c r="O342">
-        <v>122.38</v>
+        <v>122.48</v>
       </c>
       <c r="P342">
-        <v>174.41</v>
+        <v>175.19</v>
       </c>
       <c r="Q342">
-        <v>155.53</v>
+        <v>154.52</v>
       </c>
       <c r="R342">
-        <v>114.77</v>
+        <v>113.85</v>
       </c>
       <c r="S342">
-        <v>107.92</v>
+        <v>107.89</v>
       </c>
     </row>
     <row r="343" spans="1:19">
@@ -14954,6 +14954,51 @@
       </c>
       <c r="B343">
         <v>74.33</v>
+      </c>
+      <c r="E343">
+        <v>138.17</v>
+      </c>
+      <c r="F343">
+        <v>197.44</v>
+      </c>
+      <c r="G343">
+        <v>153.59</v>
+      </c>
+      <c r="H343">
+        <v>158.12</v>
+      </c>
+      <c r="I343">
+        <v>236.04</v>
+      </c>
+      <c r="J343">
+        <v>124.13</v>
+      </c>
+      <c r="K343">
+        <v>113.91</v>
+      </c>
+      <c r="L343">
+        <v>79.17</v>
+      </c>
+      <c r="M343">
+        <v>124.47</v>
+      </c>
+      <c r="N343">
+        <v>104.88</v>
+      </c>
+      <c r="O343">
+        <v>117.73</v>
+      </c>
+      <c r="P343">
+        <v>157.6</v>
+      </c>
+      <c r="Q343">
+        <v>146.29</v>
+      </c>
+      <c r="R343">
+        <v>115.08</v>
+      </c>
+      <c r="S343">
+        <v>105.28</v>
       </c>
     </row>
   </sheetData>
